--- a/1C/MATEMATICA/Matrices/Practica Matrices.xlsx
+++ b/1C/MATEMATICA/Matrices/Practica Matrices.xlsx
@@ -1,30 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ARCHIVOS NATYYYYYYYY\TUP-UTN\1C\MATEMATICA\Matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TUP-UTN\1C\MATEMATICA\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5187BF-047E-417F-A19E-03A25A8029B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13091" windowHeight="8614"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio3" sheetId="4" r:id="rId3"/>
+    <sheet name="Ejercicio4" sheetId="5" r:id="rId4"/>
+    <sheet name="Ejercicio5" sheetId="6" r:id="rId5"/>
+    <sheet name="Ejecicio6" sheetId="7" r:id="rId6"/>
+    <sheet name="Ejercicio7" sheetId="8" r:id="rId7"/>
+    <sheet name="Ejercicio 8" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Ejercicios</t>
   </si>
@@ -102,13 +120,1012 @@
   </si>
   <si>
     <t>E.A=</t>
+  </si>
+  <si>
+    <t>Ejercicio 2: dadas las siguientes matrices, hallar:</t>
+  </si>
+  <si>
+    <t>A) La segunda fila de AB</t>
+  </si>
+  <si>
+    <t>AB=</t>
+  </si>
+  <si>
+    <t>B) La tercera columna de BA</t>
+  </si>
+  <si>
+    <t>C) El elemento C 23 de C= ABA</t>
+  </si>
+  <si>
+    <t>BA=</t>
+  </si>
+  <si>
+    <t>ABA=</t>
+  </si>
+  <si>
+    <t>Ejercicio 3. Escriba las matrices definidas por las siguientes expresiones:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ꞓ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>³ , A=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) con aij = 1-2j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ꞓ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R³ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>³ , B=(b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) con b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>3  si i = j</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i + j²  si i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≠ j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ꞓ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R³ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>³ , C=(c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) con c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i² + j²  si i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥ j</t>
+    </r>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
+  <si>
+    <t>2i  si i &lt; j</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ꞓ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R³ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>² , D=(d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) con d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0   si i &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3i -j  si i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejercicio 4 </t>
+  </si>
+  <si>
+    <t>Calcule la matriz  M=</t>
+  </si>
+  <si>
+    <t>A - 2B</t>
+  </si>
+  <si>
+    <t>2/3A=</t>
+  </si>
+  <si>
+    <t>2B=</t>
+  </si>
+  <si>
+    <t>2/3A-2B=</t>
+  </si>
+  <si>
+    <t>I-</t>
+  </si>
+  <si>
+    <t>= X</t>
+  </si>
+  <si>
+    <t>==&gt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A+12B-3C+E=matriz nula de 2x2</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>A.B-2C.D</t>
+  </si>
+  <si>
+    <t>A.B</t>
+  </si>
+  <si>
+    <t>C.D</t>
+  </si>
+  <si>
+    <t>2C.D</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= A.A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <r>
+      <t>(B.C)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B.C</t>
+  </si>
+  <si>
+    <r>
+      <t>(B.C)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>C)</t>
+  </si>
+  <si>
+    <t>X=</t>
+  </si>
+  <si>
+    <t>Y=</t>
+  </si>
+  <si>
+    <t>A.X</t>
+  </si>
+  <si>
+    <t>A.Y</t>
+  </si>
+  <si>
+    <t>A.B.C</t>
+  </si>
+  <si>
+    <t>a) A.B.C</t>
+  </si>
+  <si>
+    <r>
+      <t>b) B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ.Aᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (A.B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+  </si>
+  <si>
+    <t>Bᵀ=</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bᵀ.Aᵀ=</t>
+  </si>
+  <si>
+    <t>A.B=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (B.A)ᵀ=</t>
+  </si>
+  <si>
+    <r>
+      <t>a) A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= A.A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1) (A+B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ= Aᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A+B= </t>
+  </si>
+  <si>
+    <r>
+      <t>(A+B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ=</t>
+    </r>
+  </si>
+  <si>
+    <t>Aᵀ + Bᵀ=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.B= </t>
+  </si>
+  <si>
+    <r>
+      <t>(A.B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2) (A.B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ᵀ= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ᵀ.Aᵀ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3) (A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ)ᵀ= A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)(k.A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ = k.Aᵀ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3A= </t>
+  </si>
+  <si>
+    <r>
+      <t>(3.A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.(A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵀ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ?/2"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +1141,98 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -312,11 +1411,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -355,12 +1465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,8 +1479,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,6 +1666,468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Abrir llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F30DC84-58A2-1AEB-79C9-B277A99F6533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="1476376"/>
+          <a:ext cx="95250" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Abrir llave 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A83F8C-B7F4-4501-B230-D8901F69406A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="1476376"/>
+          <a:ext cx="95250" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Abrir llave 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BD2BAB-C02B-40E1-ABF9-DF078F0B3DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="504826"/>
+          <a:ext cx="95250" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400FC818-B3CB-B65F-2FC6-A6127FAE225A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5625" t="23391" r="28354" b="67802"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3114675"/>
+          <a:ext cx="4695825" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9672D3-D8D0-A6F4-71A1-4276176E466A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="31345" b="51041"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="38100"/>
+          <a:ext cx="7112521" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254521</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFB9415-6E51-E48F-60C4-D678D6ACFE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="54357" b="34563"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3867150"/>
+          <a:ext cx="7112521" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F08C13F-2FC4-673C-5B54-A1B9296D8AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1741" t="70069" r="33978" b="11686"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="104777"/>
+          <a:ext cx="4572000" cy="1704974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459CD263-1A7E-124D-C2BD-6AE057919E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15341" r="25273" b="57860"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2914650"/>
+          <a:ext cx="5314950" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,31 +2392,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>2</v>
@@ -710,7 +2445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,7 +2480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -774,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -784,13 +2519,13 @@
       <c r="L9" s="4"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5">
         <v>2</v>
@@ -809,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -832,83 +2567,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="31" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="31" t="s">
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="23"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="26"/>
+      <c r="O18" s="24"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="26"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13">
         <v>2</v>
@@ -920,20 +2655,20 @@
         <v>2</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="2"/>
       <c r="L19" s="19">
         <v>7</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="21">
         <v>4</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="26"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="19">
         <v>5</v>
@@ -941,11 +2676,11 @@
       <c r="R19" s="19">
         <v>6</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="21">
         <v>-3</v>
       </c>
       <c r="T19" s="2"/>
-      <c r="U19" s="26"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="2"/>
       <c r="W19" s="19">
         <v>3</v>
@@ -953,12 +2688,12 @@
       <c r="X19" s="19">
         <v>1</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Y19" s="21">
         <v>3</v>
       </c>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
@@ -972,22 +2707,22 @@
         <v>-1</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="19">
         <v>4</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="21">
         <v>-4</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="26"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="3" t="s">
         <v>18</v>
       </c>
@@ -997,11 +2732,11 @@
       <c r="R20" s="19">
         <v>2</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="21">
         <v>-2</v>
       </c>
       <c r="T20" s="2"/>
-      <c r="U20" s="26"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1011,12 +2746,12 @@
       <c r="X20" s="19">
         <v>3</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="21">
         <v>6</v>
       </c>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13">
         <v>0</v>
@@ -1032,16 +2767,16 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="2"/>
       <c r="L21" s="19">
         <v>1</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="21">
         <v>3</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="19">
         <v>2</v>
@@ -1049,11 +2784,11 @@
       <c r="R21" s="19">
         <v>1</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="21">
         <v>-1</v>
       </c>
       <c r="T21" s="2"/>
-      <c r="U21" s="27"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="2"/>
       <c r="W21" s="19">
         <v>2</v>
@@ -1061,12 +2796,12 @@
       <c r="X21" s="19">
         <v>0</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="21">
         <v>0</v>
       </c>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1076,25 +2811,25 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="30"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="28"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1122,76 +2857,76 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="31" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="31" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="31" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="25"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="26"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="24"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="26"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="2"/>
       <c r="M26" s="19">
         <v>2</v>
@@ -1199,32 +2934,32 @@
       <c r="N26" s="19">
         <v>6</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="21">
         <v>2</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="24"/>
       <c r="R26" s="2"/>
       <c r="S26" s="19">
         <v>7</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="21">
         <v>2</v>
       </c>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="26"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1234,34 +2969,34 @@
       <c r="N27" s="19">
         <v>-1</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="21">
         <v>1</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="26"/>
+      <c r="Q27" s="24"/>
       <c r="R27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S27" s="19">
         <v>1</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="21">
         <v>-5</v>
       </c>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="27"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="2"/>
       <c r="M28" s="19">
         <v>2</v>
@@ -1269,39 +3004,39 @@
       <c r="N28" s="19">
         <v>2</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="21">
         <v>1</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="25"/>
       <c r="R28" s="1"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="27"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
+      <c r="V28" s="25"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1312,4 +3047,3919 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E559ED-F469-448D-AFC3-22C018200B27}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="13">
+        <f>$B$3*G3+$C$3*G4+$D$3*G5</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <f>$B$3*H3+$C$3*H4+$D$3*H5</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <f>$B$3*I3+$C$3*I4+$D$3*I5</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="13">
+        <f>$G$3*B3+$H$3*B4+$I$3*B5</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="13">
+        <f>$G$3*C3+$H$3*C4+$I$3*C5</f>
+        <v>14</v>
+      </c>
+      <c r="K9" s="34">
+        <f>$G$3*D3+$H$3*D4+$I$3*D5</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="13">
+        <f>$B$9*B3+$C$9*B4+$D$9*B5</f>
+        <v>46</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>$B$9*C3+$C$9*C4+$D$9*C5</f>
+        <v>62</v>
+      </c>
+      <c r="R9" s="6">
+        <f>$B$9*D3+$C$9*D4+$D$9*D5</f>
+        <v>26</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="33">
+        <f>$B$4*G3+$C$4*G4+$D$4*G5</f>
+        <v>-1</v>
+      </c>
+      <c r="C10" s="33">
+        <f>$B$4*H3+$C$4*H4+$D$4*H5</f>
+        <v>-1</v>
+      </c>
+      <c r="D10" s="34">
+        <f>$B$4*I3+$C$4*I4+$D$4*I5</f>
+        <v>-3</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="13">
+        <f>$G$4*B3+$H$4*B4+$I$4*B5</f>
+        <v>-6</v>
+      </c>
+      <c r="J10" s="13">
+        <f>$G$4*C3+$H$4*C4+$I$4*C5</f>
+        <v>-6</v>
+      </c>
+      <c r="K10" s="34">
+        <f>$G$4*D3+$H$4*D4+$I$4*D5</f>
+        <v>-6</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="13">
+        <f>$B$10*B3+$C$10*B4+$D$10*B5</f>
+        <v>-23</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>$B$10*C3+$C$10*C4+$D$10*C5</f>
+        <v>-25</v>
+      </c>
+      <c r="R10" s="34">
+        <f>$B$10*D3+$C$10*D4+$D$10*D5</f>
+        <v>-16</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="13">
+        <f>B5*G3+C5*G4+D5*G5</f>
+        <v>29</v>
+      </c>
+      <c r="C11" s="13">
+        <f>$B$5*H3+$C$5*H4+$D$5*H5</f>
+        <v>29</v>
+      </c>
+      <c r="D11" s="6">
+        <f>$B$5*I3+$C$5*I4+$D$5*I5</f>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="13">
+        <f>$G$5*B3+$H$5*B4+$I$5*B5</f>
+        <v>27</v>
+      </c>
+      <c r="J11" s="13">
+        <f>$G$5*C3+$H$5*C4+$I$5*C5</f>
+        <v>33</v>
+      </c>
+      <c r="K11" s="34">
+        <f>$G$5*D3+$H$5*D4+$I$5*D5</f>
+        <v>18</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="13">
+        <f>$B$11*B3+$C$11*B4+$D$11*B5</f>
+        <v>163</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>$B$11*C3+$C$11*C4+$D$11*C5</f>
+        <v>221</v>
+      </c>
+      <c r="R11" s="6">
+        <f>$B$11*D3+$C$11*D4+$D$11*D5</f>
+        <v>104</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q10:R10" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C239D-24F2-4A87-9F81-E6612166AB16}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>2</v>
+      </c>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="39"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19">
+        <f>1-2*G4</f>
+        <v>-1</v>
+      </c>
+      <c r="H5" s="19">
+        <f>1-2*H4</f>
+        <v>-3</v>
+      </c>
+      <c r="I5" s="21">
+        <f>1-2*I4</f>
+        <v>-5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="19">
+        <f>1-2*G4</f>
+        <v>-1</v>
+      </c>
+      <c r="H6" s="19">
+        <f>1-2*H4</f>
+        <v>-3</v>
+      </c>
+      <c r="I6" s="21">
+        <f>1-2*I4</f>
+        <v>-5</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="37">
+        <v>1</v>
+      </c>
+      <c r="P7" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19">
+        <f>2*N8</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="19">
+        <f>2*N8</f>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>2*N8</f>
+        <v>2</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="19">
+        <f>N9^2+O7^2</f>
+        <v>5</v>
+      </c>
+      <c r="P9" s="19">
+        <f>N9^2+P7^2</f>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="21">
+        <f>2*N9</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="19">
+        <f>N10^2+O7^2</f>
+        <v>10</v>
+      </c>
+      <c r="P10" s="19">
+        <f>N10^2+P7^2</f>
+        <v>13</v>
+      </c>
+      <c r="Q10" s="21">
+        <f>N10^2+Q7^2</f>
+        <v>18</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="37">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19">
+        <f>C13+E12^2</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="21">
+        <f>C13+F12^2</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="39"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19">
+        <f>C14+D12^2</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <f>C14+F12^2</f>
+        <v>11</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15+D12^2</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="19">
+        <f>C15+E12^2</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="37">
+        <v>1</v>
+      </c>
+      <c r="P16" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L17" s="25"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="19">
+        <f>3*N17-O16</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="21">
+        <f>3*N17-P16</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L18" s="25"/>
+      <c r="M18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21">
+        <f>3*N18-P16</f>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L19" s="25"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F27AF-4A7E-4A03-9B27-11ED40F4A7E9}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="40">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13">
+        <v>-6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="13">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="44">
+        <f>-1/4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="13">
+        <f t="shared" ref="D9:F10" si="0">C5*2/3</f>
+        <v>-4</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13">
+        <f t="shared" ref="I9:K10" si="1">2*I5</f>
+        <v>-4</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="44">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="44">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="45">
+        <f>D10-I10</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E14" s="13">
+        <f>E10-J10</f>
+        <v>-2</v>
+      </c>
+      <c r="F14" s="43">
+        <f>F10-K10</f>
+        <v>-3.6666666666666665</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="13">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="13">
+        <f>G23-J23</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <f>H23-K23</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="13">
+        <f>G24-J24</f>
+        <v>-2</v>
+      </c>
+      <c r="H28" s="6">
+        <f>H24-K24</f>
+        <v>3</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FE83CA-3524-4960-B252-E007A3505B1F}">
+  <dimension ref="A11:X45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:24" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="O12" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="74"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="13">
+        <v>24</v>
+      </c>
+      <c r="L14" s="6">
+        <v>42</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="13">
+        <v>1</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="13">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="13">
+        <v>24</v>
+      </c>
+      <c r="L15" s="6">
+        <v>42</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13">
+        <v>-24</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-42</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="13">
+        <f>Q14*U14+R14*U15</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q14*V14+R14*V15</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="13">
+        <v>-24</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-42</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="O18" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="13">
+        <f>Q15*U14+R15*U15</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <f>Q15*V14+R15*V15</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="28"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="13">
+        <f>C23*G23+D23*G24</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="13">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="13">
+        <f>C24*G23+D24*G24</f>
+        <v>4</v>
+      </c>
+      <c r="L24" s="6">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13">
+        <f>K23*K23+L23*K24</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="13">
+        <f>K24*K23+L24*K24</f>
+        <v>16</v>
+      </c>
+      <c r="D27" s="6">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="56">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="56">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="54">
+        <v>6</v>
+      </c>
+      <c r="K33" s="53">
+        <v>6</v>
+      </c>
+      <c r="L33" s="65"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="56">
+        <v>0</v>
+      </c>
+      <c r="R33" s="21">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="56">
+        <v>1</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="56">
+        <v>12</v>
+      </c>
+      <c r="G34" s="21">
+        <v>12</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="54">
+        <v>6</v>
+      </c>
+      <c r="K34" s="53">
+        <v>6</v>
+      </c>
+      <c r="L34" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="56">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="56">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="56">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="54">
+        <v>6</v>
+      </c>
+      <c r="I36" s="53">
+        <v>6</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="56">
+        <v>1</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="56">
+        <v>12</v>
+      </c>
+      <c r="F37" s="21">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="54">
+        <v>6</v>
+      </c>
+      <c r="I37" s="53">
+        <v>6</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="56">
+        <v>-5</v>
+      </c>
+      <c r="I39" s="21">
+        <v>-6</v>
+      </c>
+      <c r="J39" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="56">
+        <v>7</v>
+      </c>
+      <c r="I40" s="21">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="56">
+        <v>5</v>
+      </c>
+      <c r="I42" s="21">
+        <v>6</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="67"/>
+      <c r="L42" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="81">
+        <v>-7</v>
+      </c>
+      <c r="I43" s="82">
+        <v>-6</v>
+      </c>
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="28"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J42:K43"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2B5B6-DEE3-4139-8399-8C2DA6F3A487}">
+  <dimension ref="A9:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="87">
+        <v>2</v>
+      </c>
+      <c r="H9" s="87">
+        <v>5</v>
+      </c>
+      <c r="I9" s="87">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-7</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="87">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="87">
+        <v>1</v>
+      </c>
+      <c r="I10" s="87">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4</v>
+      </c>
+      <c r="P10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="87">
+        <v>3</v>
+      </c>
+      <c r="H11" s="87">
+        <v>2</v>
+      </c>
+      <c r="I11" s="87">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="87">
+        <f>$B$9*G9+$C$9*G10+$D$9*G11</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="87">
+        <f t="shared" ref="D13:F13" si="0">$B$9*H9+$C$9*H10+$D$9*H11</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="87">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F13" s="88">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="87">
+        <f>$B$9*M9+$C$9*M10+$D$9*M11</f>
+        <v>9</v>
+      </c>
+      <c r="J13" s="87">
+        <f t="shared" ref="J13:L13" si="1">$B$9*N9+$C$9*N10+$D$9*N11</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="87">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="L13" s="88">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="87">
+        <f>$B$10*G9+$C$10*G10+$D$10*G11</f>
+        <v>-7</v>
+      </c>
+      <c r="D14" s="87">
+        <f t="shared" ref="D14:F14" si="2">$B$10*H9+$C$10*H10+$D$10*H11</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="87">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="F14" s="88">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="87">
+        <f>$B$10*M9+$C$10*M10+$D$10*M11</f>
+        <v>-7</v>
+      </c>
+      <c r="J14" s="87">
+        <f t="shared" ref="J14:L14" si="3">$B$10*N9+$C$10*N10+$D$10*N11</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="87">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="L14" s="88">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="87">
+        <f>$B$11*G9+$C$11*G10+$D$11*G11</f>
+        <v>-5</v>
+      </c>
+      <c r="D15" s="87">
+        <f t="shared" ref="D15:F15" si="4">$B$11*H9+$C$11*H10+$D$11*H11</f>
+        <v>-17</v>
+      </c>
+      <c r="E15" s="87">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="88">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="87">
+        <f>$B$11*M9+$C$11*M10+$D$11*M11</f>
+        <v>-5</v>
+      </c>
+      <c r="J15" s="87">
+        <f t="shared" ref="J15:L15" si="5">$B$11*N9+$C$11*N10+$D$11*N11</f>
+        <v>-17</v>
+      </c>
+      <c r="K15" s="87">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="88">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E977C04-7567-4A0F-BEF5-48A9967BD4B3}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A11:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="H12" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="89">
+        <v>6</v>
+      </c>
+      <c r="H13" s="89"/>
+      <c r="I13" s="13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="89">
+        <v>0</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="89">
+        <v>6</v>
+      </c>
+      <c r="H15" s="89"/>
+      <c r="I15" s="13">
+        <v>9</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="90"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="90"/>
+      <c r="K22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="87">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="88">
+        <v>1</v>
+      </c>
+      <c r="O22" s="88"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E23" s="13"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+      <c r="J23" s="90"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="87">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="88">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="87">
+        <v>0</v>
+      </c>
+      <c r="C26" s="88">
+        <v>0</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="87">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="88">
+        <v>1</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="87">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="88">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBD928-8D76-4C81-8B12-5A96937A1780}">
+  <dimension ref="A15:T40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="13">
+        <v>-2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="13">
+        <v>-2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="13">
+        <v>-5</v>
+      </c>
+      <c r="M19" s="13">
+        <v>-3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>-8</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="13">
+        <v>-5</v>
+      </c>
+      <c r="R19" s="13">
+        <v>4</v>
+      </c>
+      <c r="S19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="13">
+        <v>4</v>
+      </c>
+      <c r="M20" s="13">
+        <v>18</v>
+      </c>
+      <c r="N20" s="6">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>-3</v>
+      </c>
+      <c r="R20" s="13">
+        <v>18</v>
+      </c>
+      <c r="S20" s="6">
+        <v>11</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="13">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="13">
+        <v>-2</v>
+      </c>
+      <c r="M21" s="13">
+        <v>11</v>
+      </c>
+      <c r="N21" s="6">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="13">
+        <v>-8</v>
+      </c>
+      <c r="R21" s="13">
+        <v>15</v>
+      </c>
+      <c r="S21" s="6">
+        <v>5</v>
+      </c>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="87">
+        <v>-3</v>
+      </c>
+      <c r="C23" s="87">
+        <v>2</v>
+      </c>
+      <c r="D23" s="88">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="87">
+        <v>1</v>
+      </c>
+      <c r="H23" s="87">
+        <v>-2</v>
+      </c>
+      <c r="I23" s="88">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="87">
+        <v>1</v>
+      </c>
+      <c r="M23" s="87">
+        <v>-2</v>
+      </c>
+      <c r="N23" s="88">
+        <v>1</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="87">
+        <v>-3</v>
+      </c>
+      <c r="R23" s="87">
+        <v>2</v>
+      </c>
+      <c r="S23" s="88">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="87">
+        <v>1</v>
+      </c>
+      <c r="C24" s="87">
+        <v>1</v>
+      </c>
+      <c r="D24" s="88">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="87">
+        <v>1</v>
+      </c>
+      <c r="H24" s="87">
+        <v>0</v>
+      </c>
+      <c r="I24" s="88">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="87">
+        <v>1</v>
+      </c>
+      <c r="M24" s="87">
+        <v>0</v>
+      </c>
+      <c r="N24" s="88">
+        <v>4</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="87">
+        <v>1</v>
+      </c>
+      <c r="R24" s="87">
+        <v>1</v>
+      </c>
+      <c r="S24" s="88">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="87">
+        <v>0</v>
+      </c>
+      <c r="C25" s="87">
+        <v>4</v>
+      </c>
+      <c r="D25" s="88">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="87">
+        <v>3</v>
+      </c>
+      <c r="H25" s="87">
+        <v>1</v>
+      </c>
+      <c r="I25" s="88">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="87">
+        <v>3</v>
+      </c>
+      <c r="M25" s="87">
+        <v>1</v>
+      </c>
+      <c r="N25" s="88">
+        <v>2</v>
+      </c>
+      <c r="O25" s="25"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="87">
+        <v>0</v>
+      </c>
+      <c r="R25" s="87">
+        <v>4</v>
+      </c>
+      <c r="S25" s="88">
+        <v>3</v>
+      </c>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="87">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="87">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="13">
+        <v>-5</v>
+      </c>
+      <c r="N27" s="13">
+        <v>4</v>
+      </c>
+      <c r="O27" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="87">
+        <v>2</v>
+      </c>
+      <c r="D28" s="87">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="95"/>
+      <c r="M28" s="13">
+        <v>-3</v>
+      </c>
+      <c r="N28" s="13">
+        <v>18</v>
+      </c>
+      <c r="O28" s="6">
+        <v>11</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="87">
+        <v>3</v>
+      </c>
+      <c r="D29" s="87">
+        <v>5</v>
+      </c>
+      <c r="E29" s="21">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="13">
+        <v>-8</v>
+      </c>
+      <c r="N29" s="13">
+        <v>15</v>
+      </c>
+      <c r="O29" s="6">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="28"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="13">
+        <v>-3</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="13">
+        <v>-3</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="13">
+        <v>-9</v>
+      </c>
+      <c r="M33" s="13">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="13">
+        <v>-9</v>
+      </c>
+      <c r="R33" s="13">
+        <v>6</v>
+      </c>
+      <c r="S33" s="6">
+        <v>-3</v>
+      </c>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="13">
+        <v>6</v>
+      </c>
+      <c r="M34" s="13">
+        <v>3</v>
+      </c>
+      <c r="N34" s="6">
+        <v>12</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>3</v>
+      </c>
+      <c r="R34" s="13">
+        <v>3</v>
+      </c>
+      <c r="S34" s="6">
+        <v>6</v>
+      </c>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="13">
+        <v>2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="13">
+        <v>-3</v>
+      </c>
+      <c r="M35" s="13">
+        <v>6</v>
+      </c>
+      <c r="N35" s="6">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13">
+        <v>12</v>
+      </c>
+      <c r="S35" s="6">
+        <v>9</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="13">
+        <v>-3</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2</v>
+      </c>
+      <c r="N37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="13">
+        <v>-9</v>
+      </c>
+      <c r="R37" s="13">
+        <v>6</v>
+      </c>
+      <c r="S37" s="6">
+        <v>-3</v>
+      </c>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="13">
+        <v>1</v>
+      </c>
+      <c r="M38" s="13">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>3</v>
+      </c>
+      <c r="R38" s="13">
+        <v>3</v>
+      </c>
+      <c r="S38" s="6">
+        <v>6</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K39" s="31"/>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <v>4</v>
+      </c>
+      <c r="N39" s="6">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="13">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <v>12</v>
+      </c>
+      <c r="S39" s="6">
+        <v>9</v>
+      </c>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K28:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>